--- a/public/template/report/Template_Report_Product_No_Stock.xlsx
+++ b/public/template/report/Template_Report_Product_No_Stock.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Kerjaan\Project\rpc-be\public\template\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC5FC1D-903D-45F8-95AD-1967365D11DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506E084D-A21C-4C17-9EFB-6CF289B8D61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Report No Stock" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Product Name</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>Location</t>
-  </si>
-  <si>
-    <t>No Stock</t>
   </si>
 </sst>
 </file>
@@ -388,7 +385,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -417,9 +414,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="F1" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
